--- a/target/test-classes/VtigerCRMTestData.xlsx
+++ b/target/test-classes/VtigerCRMTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagua\eclipse-workspace\VtigerCRM_Freshers_QKP\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sncsr\git\VtigerCRM_QKP_Freshers\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E5A80-C61F-4A4A-922D-5F427B1B6995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100C34EE-33E4-4419-93A8-F879EFA83AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrganizationsTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -161,6 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,17 +872,17 @@
       <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.88671875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -898,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -915,7 +916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -926,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -943,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,7 +961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -971,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -980,7 +981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1007,19 +1008,19 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625"/>
+    <col min="2" max="2" customWidth="true" width="43.6640625"/>
+    <col min="3" max="3" customWidth="true" width="25.6640625"/>
+    <col min="4" max="4" customWidth="true" width="20.109375"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1077,7 +1078,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -1090,7 +1091,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,11 +1121,11 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1178,11 +1179,11 @@
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
@@ -1193,7 +1194,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
@@ -1217,7 +1218,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
@@ -1226,7 +1227,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1256,11 +1257,11 @@
       <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
@@ -1271,7 +1272,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
@@ -1295,7 +1296,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
@@ -1323,16 +1324,16 @@
       <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1362,11 +1363,11 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -1379,7 +1380,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1409,11 +1410,11 @@
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
@@ -1424,7 +1425,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1454,16 +1455,16 @@
       <selection activeCell="A5" sqref="A5:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1496,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -1506,7 +1507,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1519,7 +1520,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1549,11 +1550,11 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
@@ -1564,7 +1565,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -1577,7 +1578,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
@@ -1588,7 +1589,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
@@ -1614,16 +1615,16 @@
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1653,11 +1654,11 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -1668,7 +1669,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1681,7 +1682,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
@@ -1692,7 +1693,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
